--- a/price_check.xlsx
+++ b/price_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\david\MyStuff\Docs\VSC_Projects\PriceCheck\PriceTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA265B8C-BF61-4D8E-A717-93B847B99FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39671223-570D-4399-A6B8-00DA73F09847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="3060" windowWidth="23040" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1008" yWindow="1092" windowWidth="23040" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -34,13 +34,16 @@
     <t>date</t>
   </si>
   <si>
-    <t>pMark_AMD Ryzen 9 5900X</t>
-  </si>
-  <si>
-    <t>pMark_AMD Ryzen 7 5800X3D</t>
-  </si>
-  <si>
-    <t>pMark_AMD Ryzen 7 5800X</t>
+    <t>AMD Ryzen 5 7600X</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 7700X</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7900X</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 9 7950X</t>
   </si>
 </sst>
 </file>
@@ -408,13 +411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
@@ -439,13 +442,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>349</v>
+        <v>249.99</v>
       </c>
       <c r="C2">
-        <v>459.99</v>
+        <v>319.99</v>
       </c>
       <c r="D2" s="2">
-        <v>44994.432310071781</v>
+        <v>44999.415338126288</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -453,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>323</v>
+        <v>344.99</v>
       </c>
       <c r="C3">
-        <v>434.99</v>
+        <v>444.99</v>
       </c>
       <c r="D3" s="2">
-        <v>44994.432310071781</v>
+        <v>44999.415338126288</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,13 +470,27 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>211.63</v>
+        <v>436.55</v>
       </c>
       <c r="C4">
-        <v>309.99</v>
+        <v>579.99</v>
       </c>
       <c r="D4" s="2">
-        <v>44994.432310071781</v>
+        <v>44999.415338126288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>599.99</v>
+      </c>
+      <c r="C5">
+        <v>759.99</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44999.415338126288</v>
       </c>
     </row>
   </sheetData>

--- a/price_check.xlsx
+++ b/price_check.xlsx
@@ -1,76 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\david\MyStuff\Docs\VSC_Projects\PriceCheck\PriceTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39671223-570D-4399-A6B8-00DA73F09847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="1092" windowWidth="23040" windowHeight="12192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1008" yWindow="1092" windowWidth="23040" windowHeight="12192" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>pMark_price</t>
-  </si>
-  <si>
-    <t>negg_price</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 5 7600X</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 7 7700X</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 7900X</t>
-  </si>
-  <si>
-    <t>AMD Ryzen 9 7950X</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,26 +70,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,87 +438,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col width="17.33203125" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="10.21875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="18.109375" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>pMark_price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>negg_price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 5 7600X</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>249.99</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>319.99</v>
       </c>
-      <c r="D2" s="2">
-        <v>44999.415338126288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="D2" s="3" t="n">
+        <v>44999.415338125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 7700X</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>344.99</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>444.99</v>
       </c>
-      <c r="D3" s="2">
-        <v>44999.415338126288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D3" s="3" t="n">
+        <v>44999.415338125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 9 7900X</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>436.55</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>579.99</v>
       </c>
-      <c r="D4" s="2">
-        <v>44999.415338126288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="D4" s="3" t="n">
+        <v>44999.415338125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 9 7950X</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>599.99</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>759.99</v>
       </c>
-      <c r="D5" s="2">
-        <v>44999.415338126288</v>
+      <c r="D5" s="3" t="n">
+        <v>44999.415338125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 5 7600X</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>218</v>
+      </c>
+      <c r="C6" t="n">
+        <v>319</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>45169.84159868116</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 7 7700X</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>315.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>439</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>45169.84159868116</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 9 7900X</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>409</v>
+      </c>
+      <c r="C8" t="n">
+        <v>549</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>45169.84159868116</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AMD Ryzen 9 7950X</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>540.99</v>
+      </c>
+      <c r="C9" t="n">
+        <v>749</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>45169.84159868116</v>
       </c>
     </row>
   </sheetData>
